--- a/Pareto_results.xlsx
+++ b/Pareto_results.xlsx
@@ -8,13 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\papper\iov\程序\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD77309A-4359-4968-B9A7-96AB48597C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10DD5085-F781-443D-8AE7-6706F5155C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="0" windowWidth="28800" windowHeight="15345" xr2:uid="{31D8F076-6037-4956-ABBC-B8454A2FA8CC}"/>
+    <workbookView xWindow="9600" yWindow="0" windowWidth="28800" windowHeight="15345" activeTab="9" xr2:uid="{8D0E7B51-AB7D-49D4-AFBB-0563CF49B76C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -394,453 +402,597 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E35FCF7D-7645-422C-A595-E7DB473AC6D5}">
-  <dimension ref="A1:B55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E46FCA3-E5D2-4B5F-872A-A52F4F6348B1}">
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B46"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>19149537.587830685</v>
+        <v>21241494.605952382</v>
       </c>
       <c r="B1">
-        <v>118282.53411124961</v>
+        <v>133271.90169978642</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>21030034.840873018</v>
+        <v>21256783.598809522</v>
       </c>
       <c r="B2">
-        <v>123145.61920727546</v>
+        <v>133374.03091715096</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>21162239.174206346</v>
+        <v>21328746.348809522</v>
       </c>
       <c r="B3">
-        <v>123190.69950826756</v>
+        <v>133696.13706302823</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>20965207.705158729</v>
+        <v>21337879.876587298</v>
       </c>
       <c r="B4">
-        <v>120502.37155475508</v>
+        <v>134283.55461924846</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>20992921.105158731</v>
+        <v>21379786.348809522</v>
       </c>
       <c r="B5">
-        <v>120692.84114206985</v>
+        <v>137435.98186442678</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>21280488.705158733</v>
+        <v>21388919.876587298</v>
       </c>
       <c r="B6">
-        <v>123793.45802368841</v>
+        <v>138023.39942064701</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>21253509.00515873</v>
+        <v>21352806.648809522</v>
       </c>
       <c r="B7">
-        <v>123328.2116563975</v>
+        <v>134774.30030485592</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>21235283.582936507</v>
+        <v>21361940.176587299</v>
       </c>
       <c r="B8">
-        <v>123285.15858090221</v>
+        <v>135361.71786107615</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>21256336.171825394</v>
+        <v>20981149.876058202</v>
       </c>
       <c r="B9">
-        <v>123368.85124658947</v>
+        <v>132123.05668864644</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>20989164.038492061</v>
+        <v>21164676.71309524</v>
       </c>
       <c r="B10">
-        <v>120555.02234624053</v>
+        <v>132502.60510333185</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>21304445.038492061</v>
+        <v>21236639.46309524</v>
       </c>
       <c r="B11">
-        <v>123846.10881517385</v>
+        <v>132824.71124920913</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>20962184.338492062</v>
+        <v>21306534.063095238</v>
       </c>
       <c r="B12">
-        <v>120089.77597894962</v>
+        <v>133615.64321740193</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>21277465.338492058</v>
+        <v>20723262.453835979</v>
       </c>
       <c r="B13">
-        <v>123380.86244788294</v>
+        <v>131047.71541868043</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>21041705.507539682</v>
+        <v>19849290.930026457</v>
       </c>
       <c r="B14">
-        <v>123149.50067320287</v>
+        <v>129979.30031049016</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>21114016.007539682</v>
+        <v>20032817.767063491</v>
       </c>
       <c r="B15">
-        <v>123150.56493867819</v>
+        <v>130358.84872517559</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>21123149.535317458</v>
+        <v>19921253.680026457</v>
       </c>
       <c r="B16">
-        <v>123174.66211487865</v>
+        <v>130301.40645636742</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>21192135.263095237</v>
+        <v>20888927.453835979</v>
       </c>
       <c r="B17">
-        <v>123237.63404969026</v>
+        <v>131906.68643344281</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>21173909.840873018</v>
+        <v>21072454.290873017</v>
       </c>
       <c r="B18">
-        <v>123194.58097419496</v>
+        <v>132286.23484812822</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>21213264.429761901</v>
+        <v>20912059.71309524</v>
       </c>
       <c r="B19">
-        <v>123249.64525098373</v>
+        <v>132031.64993656086</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>19090568.919841271</v>
+        <v>19596673.930026457</v>
       </c>
       <c r="B20">
-        <v>118252.13518501466</v>
+        <v>129508.34514371915</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>18964185.605555557</v>
+        <v>19668636.680026457</v>
       </c>
       <c r="B21">
-        <v>118234.90444893332</v>
+        <v>129830.45128959641</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>19036496.105555557</v>
+        <v>20823731.803835977</v>
       </c>
       <c r="B22">
-        <v>118235.96871440863</v>
+        <v>131618.30479763329</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>19096389.938888889</v>
+        <v>21182176.71309524</v>
       </c>
       <c r="B23">
-        <v>118279.98474992541</v>
+        <v>132761.04192230964</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>19860485.009259257</v>
+        <v>19857784.930026457</v>
       </c>
       <c r="B24">
-        <v>118354.06020384829</v>
+        <v>130099.56737662549</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>19513382.609259259</v>
+        <v>20745939.720502645</v>
       </c>
       <c r="B25">
-        <v>118284.1222279239</v>
+        <v>131295.60248056555</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>20565748.66640212</v>
+        <v>21176347.379761904</v>
       </c>
       <c r="B26">
-        <v>119394.96719339909</v>
+        <v>132760.44575111917</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>19714573.346296299</v>
+        <v>19860961.596693125</v>
       </c>
       <c r="B27">
-        <v>118322.14179311701</v>
+        <v>130237.14095827746</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>20030920.346296299</v>
+        <v>20769896.053835977</v>
       </c>
       <c r="B28">
-        <v>118392.0797690414</v>
+        <v>131600.85135916565</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>20103230.846296299</v>
+        <v>19608344.596693125</v>
       </c>
       <c r="B29">
-        <v>118393.14403451672</v>
+        <v>129766.18579150646</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>20256047.762962963</v>
+        <v>20092920.497619048</v>
       </c>
       <c r="B30">
-        <v>118418.63013973065</v>
+        <v>130585.17256628138</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>20408770.260582011</v>
+        <v>20521495.112169314</v>
       </c>
       <c r="B31">
-        <v>118544.37478087492</v>
+        <v>130898.86639778668</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>20310214.113756612</v>
+        <v>20101414.497619048</v>
       </c>
       <c r="B32">
-        <v>118533.54799882308</v>
+        <v>130705.43963241672</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>20291988.691534393</v>
+        <v>19714939.075396825</v>
       </c>
       <c r="B33">
-        <v>118490.49492332779</v>
+        <v>129887.89355840458</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>20451551.974867724</v>
+        <v>20449310.784391534</v>
       </c>
       <c r="B34">
-        <v>118602.72547601564</v>
+        <v>130793.13050711305</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBCEDBF2-F242-42BE-94BF-F621846F832F}">
+  <dimension ref="A1:B37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>19339924.214285713</v>
+      </c>
+      <c r="B1">
+        <v>129618.65862395232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>20541122.952910051</v>
+      </c>
+      <c r="B2">
+        <v>130793.13050711305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>19877066.645767197</v>
+      </c>
+      <c r="B3">
+        <v>130518.7911961081</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>21336797.275661375</v>
+      </c>
+      <c r="B4">
+        <v>134232.22600585886</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>21345930.803439148</v>
+      </c>
+      <c r="B5">
+        <v>134819.64356207909</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>21396970.803439148</v>
+      </c>
+      <c r="B6">
+        <v>138559.48836347761</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>21369991.103439149</v>
+      </c>
+      <c r="B7">
+        <v>135897.80680390677</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>21351801.870105822</v>
+      </c>
+      <c r="B8">
+        <v>135541.67879721607</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>19805201.412433863</v>
+      </c>
+      <c r="B9">
+        <v>130263.28742373466</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>20840413.669576719</v>
+      </c>
+      <c r="B10">
+        <v>131264.08567388405</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>21078041.419576719</v>
+      </c>
+      <c r="B11">
+        <v>132445.16283452368</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>21285628.556613754</v>
+      </c>
+      <c r="B12">
+        <v>133902.87449103681</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>20748191.247354496</v>
+      </c>
+      <c r="B13">
+        <v>131047.71541868043</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>19886440.912433863</v>
+      </c>
+      <c r="B14">
+        <v>130530.50950912893</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>20901369.819576722</v>
+      </c>
+      <c r="B15">
+        <v>131596.14540566347</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>21178598.906613752</v>
+      </c>
+      <c r="B16">
+        <v>132512.55868923402</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>21250561.656613752</v>
+      </c>
+      <c r="B17">
+        <v>132834.6648351113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>21019028.402910054</v>
+      </c>
+      <c r="B18">
+        <v>132438.25915314871</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>19713825.145767197</v>
+      </c>
+      <c r="B19">
+        <v>129724.71539892278</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>20495574.247354496</v>
+      </c>
+      <c r="B20">
+        <v>130576.76025190942</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20576790.069576722</v>
+      </c>
+      <c r="B21">
+        <v>130803.08409301522</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21303128.556613754</v>
+      </c>
+      <c r="B22">
+        <v>134161.31131001457</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>21366500.232010581</v>
+      </c>
+      <c r="B23">
+        <v>135659.30248076064</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>21430661.032010581</v>
+      </c>
+      <c r="B24">
+        <v>142976.22986778582</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>21417540.232010581</v>
+      </c>
+      <c r="B25">
+        <v>139399.14728215916</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>21390560.532010581</v>
+      </c>
+      <c r="B26">
+        <v>136737.46572258833</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>21372371.298677247</v>
+      </c>
+      <c r="B27">
+        <v>136381.33771589762</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>19813695.412433863</v>
+      </c>
+      <c r="B28">
+        <v>130383.55448986999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>20848907.669576719</v>
+      </c>
+      <c r="B29">
+        <v>131384.35274001939</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>21294122.556613754</v>
+      </c>
+      <c r="B30">
+        <v>134023.14155717214</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>20852084.336243387</v>
+      </c>
+      <c r="B31">
+        <v>131521.92632167134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>20924047.086243387</v>
+      </c>
+      <c r="B32">
+        <v>131844.03246754862</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>21297299.223280426</v>
+      </c>
+      <c r="B33">
+        <v>134160.7151388241</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>21190269.573280424</v>
+      </c>
+      <c r="B34">
+        <v>132770.39933702134</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>20472681.141534392</v>
+        <v>21262232.323280424</v>
       </c>
       <c r="B35">
-        <v>118614.73667730911</v>
+        <v>133092.50548289859</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>20487503.947089948</v>
+        <v>21271365.8510582</v>
       </c>
       <c r="B36">
-        <v>118643.29029259409</v>
+        <v>133679.92303911882</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>19723067.346296299</v>
+        <v>20948003.419576719</v>
       </c>
       <c r="B37">
-        <v>118330.97014974272</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>19875884.262962963</v>
-      </c>
-      <c r="B38">
-        <v>118356.45625495665</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>20534573.570105821</v>
-      </c>
-      <c r="B39">
-        <v>119367.99451407054</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>20180371.22724868</v>
-      </c>
-      <c r="B40">
-        <v>118411.60385437586</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>20114901.512962963</v>
-      </c>
-      <c r="B41">
-        <v>118397.02550044413</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>20850920.570105821</v>
-      </c>
-      <c r="B42">
-        <v>119437.93248999493</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>20267718.429629631</v>
-      </c>
-      <c r="B43">
-        <v>118422.51160565806</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>20596713.299735453</v>
-      </c>
-      <c r="B44">
-        <v>119436.86822451961</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>20854354.519576721</v>
-      </c>
-      <c r="B45">
-        <v>119531.99696045404</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>20911997.244179897</v>
-      </c>
-      <c r="B46">
-        <v>119543.54300821957</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>20648285.89179894</v>
-      </c>
-      <c r="B47">
-        <v>118267.53115631695</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>21066716.886243388</v>
-      </c>
-      <c r="B48">
-        <v>118282.13664243101</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>20983021.749735449</v>
-      </c>
-      <c r="B49">
-        <v>118275.51343114623</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>20992155.277513228</v>
-      </c>
-      <c r="B50">
-        <v>118276.29104016948</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>21214156.464021165</v>
-      </c>
-      <c r="B51">
-        <v>118292.70837402377</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>21087846.052910052</v>
-      </c>
-      <c r="B52">
-        <v>118286.59792735174</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>20854354.519576721</v>
-      </c>
-      <c r="B53">
-        <v>119531.99696045404</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>20770659.383068785</v>
-      </c>
-      <c r="B54">
-        <v>119474.36553102701</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>20779792.910846561</v>
-      </c>
-      <c r="B55">
-        <v>119498.46270722747</v>
+        <v>132149.28134614872</v>
       </c>
     </row>
   </sheetData>
@@ -850,397 +1002,2205 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0C3266C-B96D-4B37-B5B8-F26BA758CC8C}">
-  <dimension ref="A1:B48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB978898-B482-458E-80CF-F9F8C33952AB}">
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B39"/>
+      <selection sqref="A1:B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>20161147.720105819</v>
+        <v>21353675.142328043</v>
       </c>
       <c r="B1">
-        <v>118711.09063369826</v>
+        <v>133696.13706302823</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>20293352.053439151</v>
+        <v>21372821.753439151</v>
       </c>
       <c r="B2">
-        <v>118712.15086292299</v>
+        <v>136032.94126529573</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>20172818.386772484</v>
+        <v>20840413.669576719</v>
       </c>
       <c r="B3">
-        <v>118711.52378812559</v>
+        <v>131264.08567388405</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>20245128.886772484</v>
+        <v>20149968.982804231</v>
       </c>
       <c r="B4">
-        <v>118711.63059193928</v>
+        <v>130575.21898037921</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>18388359.345502645</v>
+        <v>21006078.669576719</v>
       </c>
       <c r="B5">
-        <v>118710.33629524965</v>
+        <v>132123.05668864644</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>17939603.89179894</v>
+        <v>21189605.506613754</v>
       </c>
       <c r="B6">
-        <v>118709.4652326756</v>
+        <v>132502.60510333185</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>19464656.612962961</v>
+        <v>21078041.419576719</v>
       </c>
       <c r="B7">
-        <v>118710.42189989823</v>
+        <v>132445.16283452368</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>19473790.140740741</v>
+        <v>21261568.256613754</v>
       </c>
       <c r="B8">
-        <v>118710.46957963763</v>
+        <v>132824.71124920913</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>20619148.297883596</v>
+        <v>21331462.856613755</v>
       </c>
       <c r="B9">
-        <v>118720.07026482974</v>
+        <v>133615.64321740193</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>20622862.853439152</v>
+        <v>20864370.002910051</v>
       </c>
       <c r="B10">
-        <v>118720.22570454405</v>
+        <v>131569.33455248416</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>20775679.77010582</v>
+        <v>20936332.752910051</v>
       </c>
       <c r="B11">
-        <v>118720.31130919262</v>
+        <v>131891.4406983614</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>20784813.297883596</v>
+        <v>21030035.002910051</v>
       </c>
       <c r="B12">
-        <v>118720.35898893203</v>
+        <v>132428.30556724654</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>20440264.806613758</v>
+        <v>21213561.83994709</v>
       </c>
       <c r="B13">
-        <v>118713.54573621649</v>
+        <v>132807.85398193196</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>19546100.640740741</v>
+        <v>21285524.58994709</v>
       </c>
       <c r="B14">
-        <v>118710.57638345132</v>
+        <v>133129.9601278092</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>20940818.934391532</v>
+        <v>20587796.669576719</v>
       </c>
       <c r="B15">
-        <v>118722.16038839874</v>
+        <v>130793.13050711305</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>20922593.512169313</v>
+        <v>19713825.145767197</v>
       </c>
       <c r="B16">
-        <v>118721.69234501946</v>
+        <v>129724.71539892278</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>20857123.797883596</v>
+        <v>19897351.982804231</v>
       </c>
       <c r="B17">
-        <v>118720.46579274572</v>
+        <v>130104.26381360821</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>20500158.63994709</v>
+        <v>20659759.419576719</v>
       </c>
       <c r="B18">
-        <v>118714.49916162754</v>
+        <v>131115.23665299031</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>20416463.503439154</v>
+        <v>19785787.895767197</v>
       </c>
       <c r="B19">
-        <v>118712.80456597451</v>
+        <v>130046.82154480004</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>20509292.167724866</v>
+        <v>20936988.506613757</v>
       </c>
       <c r="B20">
-        <v>118714.54684136694</v>
+        <v>132031.64993656086</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>20917017.631216932</v>
+        <v>21207105.506613754</v>
       </c>
       <c r="B21">
-        <v>118721.41921815676</v>
+        <v>132761.04192230964</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>20521287.806613758</v>
+        <v>21358096.384391535</v>
       </c>
       <c r="B22">
-        <v>118718.15582669669</v>
+        <v>134461.49759259995</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>21015535.573280424</v>
+        <v>21369330.882010583</v>
       </c>
       <c r="B23">
-        <v>118723.21921475833</v>
+        <v>135794.43694214959</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>20538787.806613758</v>
+        <v>21393391.182010584</v>
       </c>
       <c r="B24">
-        <v>118719.6372999618</v>
+        <v>136872.60018397728</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>21058317.287566137</v>
+        <v>21375201.948677246</v>
       </c>
       <c r="B25">
-        <v>118724.48380999798</v>
+        <v>136516.47217728657</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>21067450.815343913</v>
+        <v>20848907.669576719</v>
       </c>
       <c r="B26">
-        <v>118724.53148973739</v>
+        <v>131384.35274001939</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>21115559.682010584</v>
+        <v>19974936.145767197</v>
       </c>
       <c r="B27">
-        <v>118729.32213224928</v>
+        <v>130315.93763182912</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>20556325.182010584</v>
+        <v>20158462.982804231</v>
       </c>
       <c r="B28">
-        <v>118719.68097437605</v>
+        <v>130695.48604651455</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>21079446.454232801</v>
+        <v>21014572.669576719</v>
       </c>
       <c r="B29">
-        <v>118728.14047506714</v>
+        <v>132243.32375478177</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>20949312.934391532</v>
+        <v>21198099.506613754</v>
       </c>
       <c r="B30">
-        <v>118722.87587946509</v>
+        <v>132622.87216946718</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>20295929.836772487</v>
+        <v>21270062.256613754</v>
       </c>
       <c r="B31">
-        <v>118712.17749117711</v>
+        <v>132944.97831534446</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>20305063.364550266</v>
+        <v>20596290.669576719</v>
       </c>
       <c r="B32">
-        <v>118712.22517091651</v>
+        <v>130913.39757324838</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>20289050.236772485</v>
+        <v>19905845.982804231</v>
       </c>
       <c r="B33">
-        <v>118711.99562988798</v>
+        <v>130224.53087974354</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>20368240.336772487</v>
+        <v>20668253.419576719</v>
       </c>
       <c r="B34">
-        <v>118712.28429499079</v>
+        <v>131235.50371912564</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>20511829.306613758</v>
+        <v>19977808.732804231</v>
       </c>
       <c r="B35">
-        <v>118714.93231605487</v>
+        <v>130546.6370256208</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>20520962.834391534</v>
+        <v>20852084.336243387</v>
       </c>
       <c r="B36">
-        <v>118714.97999579427</v>
+        <v>131521.92632167134</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>20437267.697883599</v>
+        <v>21017749.336243387</v>
       </c>
       <c r="B37">
-        <v>118713.28540014125</v>
+        <v>132380.89733643373</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>20532958.473280426</v>
+        <v>21201276.173280425</v>
       </c>
       <c r="B38">
-        <v>118718.58898112402</v>
+        <v>132760.44575111917</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>21027206.239947088</v>
+        <v>20876040.669576719</v>
       </c>
       <c r="B39">
-        <v>118723.65236918566</v>
+        <v>131827.17520027145</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>21000898.721428573</v>
+        <v>20599467.336243387</v>
       </c>
       <c r="B40">
-        <v>118716.27265872947</v>
+        <v>131050.97115490036</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>21459535.765873019</v>
+        <v>19725495.812433861</v>
       </c>
       <c r="B41">
-        <v>118722.68381339642</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>21558053.707936507</v>
-      </c>
-      <c r="B42">
-        <v>118724.48380999798</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>21474358.571428575</v>
-      </c>
-      <c r="B43">
-        <v>118722.78921434496</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>21483492.099206347</v>
-      </c>
-      <c r="B44">
-        <v>118722.83689408436</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>20867976.757142857</v>
-      </c>
-      <c r="B45">
-        <v>118712.28429499079</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>20960805.421428572</v>
-      </c>
-      <c r="B46">
-        <v>118714.02657038323</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>21032694.893650793</v>
-      </c>
-      <c r="B47">
-        <v>118718.58898112402</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>21443247.523809522</v>
-      </c>
-      <c r="B48">
-        <v>118721.95777353263</v>
+        <v>129982.55604671009</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A48661-D4D0-4F94-B049-FFC021A46AFA}">
+  <dimension ref="A1:B40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>20865582.873280425</v>
+      </c>
+      <c r="B1">
+        <v>131264.08567388405</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>20612965.873280425</v>
+      </c>
+      <c r="B2">
+        <v>130793.13050711305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>19738994.349470899</v>
+      </c>
+      <c r="B3">
+        <v>129724.71539892278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>19958417.47724868</v>
+      </c>
+      <c r="B4">
+        <v>130089.61379072332</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>20579772.001058202</v>
+      </c>
+      <c r="B5">
+        <v>130687.07373214258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>19705800.47724868</v>
+      </c>
+      <c r="B6">
+        <v>129618.65862395232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>21479738.921957672</v>
+      </c>
+      <c r="B7">
+        <v>136731.88157805247</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>21503695.255291007</v>
+      </c>
+      <c r="B8">
+        <v>137037.13045665258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>20151077.216137566</v>
+      </c>
+      <c r="B9">
+        <v>130195.67056569378</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>21097011.489947088</v>
+      </c>
+      <c r="B10">
+        <v>131586.1918197613</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>21190713.739947088</v>
+      </c>
+      <c r="B11">
+        <v>132123.05668864644</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>21262676.489947088</v>
+      </c>
+      <c r="B12">
+        <v>132445.16283452368</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>21446203.326984126</v>
+      </c>
+      <c r="B13">
+        <v>132824.71124920913</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>21214670.073280424</v>
+      </c>
+      <c r="B14">
+        <v>132428.30556724654</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>21398196.910317458</v>
+      </c>
+      <c r="B15">
+        <v>132807.85398193196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>21286632.823280424</v>
+      </c>
+      <c r="B16">
+        <v>132750.41171312379</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>20844394.489947088</v>
+      </c>
+      <c r="B17">
+        <v>131115.23665299031</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>21114511.489947088</v>
+      </c>
+      <c r="B18">
+        <v>131844.62863873909</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>21525962.669576719</v>
+      </c>
+      <c r="B19">
+        <v>139876.75498957493</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>21500204.383862432</v>
+      </c>
+      <c r="B20">
+        <v>136798.62613350645</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>21551244.383862432</v>
+      </c>
+      <c r="B21">
+        <v>140538.47093490497</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21524264.683862433</v>
+      </c>
+      <c r="B22">
+        <v>137876.78937533413</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>21506075.450529102</v>
+      </c>
+      <c r="B23">
+        <v>137520.66136864343</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>21105505.489947088</v>
+      </c>
+      <c r="B24">
+        <v>131706.45888589663</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>21117991.91772487</v>
+      </c>
+      <c r="B25">
+        <v>132016.99991367597</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>21199207.739947088</v>
+      </c>
+      <c r="B26">
+        <v>132243.32375478177</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>21271170.489947088</v>
+      </c>
+      <c r="B27">
+        <v>132565.42990065902</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>21454697.326984126</v>
+      </c>
+      <c r="B28">
+        <v>132944.97831534446</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>21478757.626984127</v>
+      </c>
+      <c r="B29">
+        <v>134023.14155717214</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>21460568.393650793</v>
+      </c>
+      <c r="B30">
+        <v>133667.01355048141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>20780925.739947088</v>
+      </c>
+      <c r="B31">
+        <v>130913.39757324838</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>19906954.216137566</v>
+      </c>
+      <c r="B32">
+        <v>129844.98246505811</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>20955503.584391534</v>
+      </c>
+      <c r="B33">
+        <v>131295.60248056555</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>21036719.406613752</v>
+      </c>
+      <c r="B34">
+        <v>131521.92632167134</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>20162747.88280423</v>
+      </c>
+      <c r="B35">
+        <v>130453.51121348109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>21108682.156613752</v>
+      </c>
+      <c r="B36">
+        <v>131844.03246754862</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>20702886.584391534</v>
+      </c>
+      <c r="B37">
+        <v>130824.64731379456</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>19828915.060582012</v>
+      </c>
+      <c r="B38">
+        <v>129756.23220560429</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>20784102.406613756</v>
+      </c>
+      <c r="B39">
+        <v>131050.97115490036</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>19910130.88280423</v>
+      </c>
+      <c r="B40">
+        <v>129982.55604671009</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F6DAA62-A7DA-41A4-BAEE-EE382FC934A4}">
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>21297879.89761905</v>
+      </c>
+      <c r="B1">
+        <v>132723.47171280338</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>21195568.882804234</v>
+      </c>
+      <c r="B2">
+        <v>132570.24713922373</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>21379095.719841268</v>
+      </c>
+      <c r="B3">
+        <v>132949.79555390918</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>21451058.469841268</v>
+      </c>
+      <c r="B4">
+        <v>133271.90169978642</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>21189118.375661377</v>
+      </c>
+      <c r="B5">
+        <v>132457.61763358043</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>21403052.053174604</v>
+      </c>
+      <c r="B6">
+        <v>133255.04443250925</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>21475014.803174604</v>
+      </c>
+      <c r="B7">
+        <v>133577.15057838653</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>21480847.173809521</v>
+      </c>
+      <c r="B8">
+        <v>134694.19294769297</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>21489980.701587297</v>
+      </c>
+      <c r="B9">
+        <v>135281.61050391319</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>21504907.473809522</v>
+      </c>
+      <c r="B10">
+        <v>135772.35618952065</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>21557456.823809523</v>
+      </c>
+      <c r="B11">
+        <v>136032.94126529573</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>21025048.739947088</v>
+      </c>
+      <c r="B12">
+        <v>131264.08567388405</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>20151077.216137566</v>
+      </c>
+      <c r="B13">
+        <v>130195.67056569378</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>21097011.489947088</v>
+      </c>
+      <c r="B14">
+        <v>131586.1918197613</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>21049005.073280424</v>
+      </c>
+      <c r="B15">
+        <v>131569.33455248416</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>21120967.823280424</v>
+      </c>
+      <c r="B16">
+        <v>131891.4406983614</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>20772431.739947088</v>
+      </c>
+      <c r="B17">
+        <v>130793.13050711305</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>19898460.216137566</v>
+      </c>
+      <c r="B18">
+        <v>129724.71539892278</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>20844394.489947088</v>
+      </c>
+      <c r="B19">
+        <v>131115.23665299031</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19970422.966137566</v>
+      </c>
+      <c r="B20">
+        <v>130046.82154480004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>21033542.739947088</v>
+      </c>
+      <c r="B21">
+        <v>131384.35274001939</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20780925.739947088</v>
+      </c>
+      <c r="B22">
+        <v>130913.39757324838</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>19906954.216137566</v>
+      </c>
+      <c r="B23">
+        <v>129844.98246505811</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>21036719.406613752</v>
+      </c>
+      <c r="B24">
+        <v>131521.92632167134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>21108682.156613752</v>
+      </c>
+      <c r="B25">
+        <v>131844.03246754862</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>20008074.253174603</v>
+      </c>
+      <c r="B26">
+        <v>130104.26381360821</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>20154520.719841272</v>
+      </c>
+      <c r="B27">
+        <v>130696.5005310516</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CBBE6F1-EAA6-4205-A3A2-F75C7FD6F2AD}">
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>20990414.345502645</v>
+      </c>
+      <c r="B1">
+        <v>132534.71808120384</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>21178008.159788359</v>
+      </c>
+      <c r="B2">
+        <v>134332.28156973718</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>20632216.508465607</v>
+      </c>
+      <c r="B3">
+        <v>131158.02889891359</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>20981408.345502645</v>
+      </c>
+      <c r="B4">
+        <v>132396.54832836139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>21062624.16772487</v>
+      </c>
+      <c r="B5">
+        <v>132622.87216946718</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>20869844.258465607</v>
+      </c>
+      <c r="B6">
+        <v>132339.10605955322</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>21143720.445502646</v>
+      </c>
+      <c r="B7">
+        <v>133532.39587156466</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>21194760.445502646</v>
+      </c>
+      <c r="B8">
+        <v>137272.24067296321</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>21226651.495502647</v>
+      </c>
+      <c r="B9">
+        <v>138429.14716677548</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>21149591.512169313</v>
+      </c>
+      <c r="B10">
+        <v>134254.43110670164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>20460815.330687832</v>
+      </c>
+      <c r="B11">
+        <v>130913.39757324838</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>20635393.175132275</v>
+      </c>
+      <c r="B12">
+        <v>131295.60248056555</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>21065800.834391534</v>
+      </c>
+      <c r="B13">
+        <v>132760.44575111917</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>21137763.584391534</v>
+      </c>
+      <c r="B14">
+        <v>133082.55189699642</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>21178788.162169315</v>
+      </c>
+      <c r="B15">
+        <v>134826.87594702895</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>21089757.16772487</v>
+      </c>
+      <c r="B16">
+        <v>133065.69462971925</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>20382776.175132275</v>
+      </c>
+      <c r="B17">
+        <v>130824.64731379456</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>20463991.997354496</v>
+      </c>
+      <c r="B18">
+        <v>131050.97115490036</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>21071523.751058202</v>
+      </c>
+      <c r="B19">
+        <v>132824.71124920913</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>21080017.751058202</v>
+      </c>
+      <c r="B20">
+        <v>132944.97831534446</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>19938916.877248678</v>
+      </c>
+      <c r="B21">
+        <v>129979.30031049016</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>19686299.877248678</v>
+      </c>
+      <c r="B22">
+        <v>129508.34514371915</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>19758262.627248678</v>
+      </c>
+      <c r="B23">
+        <v>129830.45128959641</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>19950587.543915343</v>
+      </c>
+      <c r="B24">
+        <v>130237.14095827746</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>20052386.760582011</v>
+      </c>
+      <c r="B25">
+        <v>130358.84872517559</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>20814794.197354496</v>
+      </c>
+      <c r="B26">
+        <v>131369.82156455767</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>20124349.510582011</v>
+      </c>
+      <c r="B27">
+        <v>130680.95487105285</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>20076343.093915343</v>
+      </c>
+      <c r="B28">
+        <v>130664.09760377569</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>19799769.760582011</v>
+      </c>
+      <c r="B29">
+        <v>129887.89355840458</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>20069886.760582011</v>
+      </c>
+      <c r="B30">
+        <v>130617.28554415336</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>19969576.345767196</v>
+      </c>
+      <c r="B31">
+        <v>130315.93763182912</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>20060880.760582011</v>
+      </c>
+      <c r="B32">
+        <v>130479.11579131092</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>20132843.510582011</v>
+      </c>
+      <c r="B33">
+        <v>130801.22193718818</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08688373-385B-4AF4-A715-AA29F0C66036}">
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>20808800.454497356</v>
+      </c>
+      <c r="B1">
+        <v>131480.13504479083</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>21353675.142328043</v>
+      </c>
+      <c r="B2">
+        <v>133696.13706302823</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>21404715.142328043</v>
+      </c>
+      <c r="B3">
+        <v>137435.98186442678</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>21413848.670105822</v>
+      </c>
+      <c r="B4">
+        <v>138023.39942064701</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>21377735.44232804</v>
+      </c>
+      <c r="B5">
+        <v>134774.30030485592</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>21386868.970105819</v>
+      </c>
+      <c r="B6">
+        <v>135361.71786107615</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>19966442.145767197</v>
+      </c>
+      <c r="B7">
+        <v>130195.67056569378</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>20149968.982804231</v>
+      </c>
+      <c r="B8">
+        <v>130575.21898037921</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>20038404.895767197</v>
+      </c>
+      <c r="B9">
+        <v>130517.77671157104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>21331462.856613755</v>
+      </c>
+      <c r="B10">
+        <v>133615.64321740193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>20748191.247354496</v>
+      </c>
+      <c r="B11">
+        <v>131047.71541868043</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>19874219.723544974</v>
+      </c>
+      <c r="B12">
+        <v>129979.30031049016</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>21169345.834391534</v>
+      </c>
+      <c r="B13">
+        <v>132608.3409940055</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>20936332.752910051</v>
+      </c>
+      <c r="B14">
+        <v>131891.4406983614</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>19713825.145767197</v>
+      </c>
+      <c r="B15">
+        <v>129724.71539892278</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>20495574.247354496</v>
+      </c>
+      <c r="B16">
+        <v>130576.76025190942</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>19621602.723544974</v>
+      </c>
+      <c r="B17">
+        <v>129508.34514371915</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>21207105.506613754</v>
+      </c>
+      <c r="B18">
+        <v>132761.04192230964</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>21277000.106613755</v>
+      </c>
+      <c r="B19">
+        <v>133551.97389050244</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>21354833.923280425</v>
+      </c>
+      <c r="B20">
+        <v>134596.1152715167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20953832.752910051</v>
+      </c>
+      <c r="B21">
+        <v>132149.87751733919</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21434418.098677248</v>
+      </c>
+      <c r="B22">
+        <v>138863.05833932856</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>21198099.506613754</v>
+      </c>
+      <c r="B23">
+        <v>132622.87216946718</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>21270062.256613754</v>
+      </c>
+      <c r="B24">
+        <v>132944.97831534446</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>20842831.264021166</v>
+      </c>
+      <c r="B25">
+        <v>131617.70862644282</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>20924047.086243387</v>
+      </c>
+      <c r="B26">
+        <v>131844.03246754862</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>21201276.173280425</v>
+      </c>
+      <c r="B27">
+        <v>132760.44575111917</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>21271170.773280427</v>
+      </c>
+      <c r="B28">
+        <v>133551.37771931197</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>20948003.419576719</v>
+      </c>
+      <c r="B29">
+        <v>132149.28134614872</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>20507244.914021164</v>
+      </c>
+      <c r="B30">
+        <v>130834.60089969673</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>21020138.398677245</v>
+      </c>
+      <c r="B31">
+        <v>132286.23484812822</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>20838463.619576719</v>
+      </c>
+      <c r="B32">
+        <v>131586.1918197613</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07497C80-977F-42CA-8EBE-F7AE08F1A93E}">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>19723528.464021165</v>
+      </c>
+      <c r="B1">
+        <v>130205.62415159596</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>19795491.214021165</v>
+      </c>
+      <c r="B2">
+        <v>130527.73029747322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>20852989.574867725</v>
+      </c>
+      <c r="B3">
+        <v>131975.69382034891</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>20946691.824867725</v>
+      </c>
+      <c r="B4">
+        <v>132512.55868923402</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>19747484.797354497</v>
+      </c>
+      <c r="B5">
+        <v>130510.87303019606</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>19470911.464021165</v>
+      </c>
+      <c r="B6">
+        <v>129734.66898482495</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>19654438.301058203</v>
+      </c>
+      <c r="B7">
+        <v>130114.21739951038</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>19732022.464021165</v>
+      </c>
+      <c r="B8">
+        <v>130325.89121773129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>19735199.130687833</v>
+      </c>
+      <c r="B9">
+        <v>130463.46479938326</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>20069733.858465608</v>
+      </c>
+      <c r="B10">
+        <v>130576.76025190942</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>20150949.680687834</v>
+      </c>
+      <c r="B11">
+        <v>130803.08409301522</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>20170450.280687831</v>
+      </c>
+      <c r="B12">
+        <v>130913.39757324838</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>20173626.947354496</v>
+      </c>
+      <c r="B13">
+        <v>131050.97115490036</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>19359195.845767196</v>
+      </c>
+      <c r="B14">
+        <v>129724.71539892278</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>19542722.682804231</v>
+      </c>
+      <c r="B15">
+        <v>130104.26381360821</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>20628354.130687833</v>
+      </c>
+      <c r="B16">
+        <v>131274.03925978622</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>20811880.967724867</v>
+      </c>
+      <c r="B17">
+        <v>131653.58767447164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>20559263.967724867</v>
+      </c>
+      <c r="B18">
+        <v>131182.63250770065</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>20829380.967724867</v>
+      </c>
+      <c r="B19">
+        <v>131912.02449344943</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>21060623.567724869</v>
+      </c>
+      <c r="B20">
+        <v>132770.99550821181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>21084700.103439149</v>
+      </c>
+      <c r="B21">
+        <v>138694.62282486656</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21078289.832010582</v>
+      </c>
+      <c r="B22">
+        <v>136872.60018397728</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F585C6F7-88A0-4ACE-88A8-DE29E56B1BDA}">
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>21538310.212698415</v>
+      </c>
+      <c r="B1">
+        <v>133696.13706302823</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>21589350.212698415</v>
+      </c>
+      <c r="B2">
+        <v>137435.98186442678</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>21190713.739947088</v>
+      </c>
+      <c r="B3">
+        <v>132123.05668864644</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>21262676.489947088</v>
+      </c>
+      <c r="B4">
+        <v>132445.16283452368</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>21446203.326984126</v>
+      </c>
+      <c r="B5">
+        <v>132824.71124920913</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>21120967.823280424</v>
+      </c>
+      <c r="B6">
+        <v>131891.4406983614</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>21214670.073280424</v>
+      </c>
+      <c r="B7">
+        <v>132428.30556724654</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>21286632.823280424</v>
+      </c>
+      <c r="B8">
+        <v>132750.41171312379</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>21470159.660317458</v>
+      </c>
+      <c r="B9">
+        <v>133129.9601278092</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>20772431.739947088</v>
+      </c>
+      <c r="B10">
+        <v>130793.13050711305</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>19898460.216137566</v>
+      </c>
+      <c r="B11">
+        <v>129724.71539892278</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>20844394.489947088</v>
+      </c>
+      <c r="B12">
+        <v>131115.23665299031</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>21114511.489947088</v>
+      </c>
+      <c r="B13">
+        <v>131844.62863873909</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>21280176.489947088</v>
+      </c>
+      <c r="B14">
+        <v>132703.59965350147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>21463703.326984126</v>
+      </c>
+      <c r="B15">
+        <v>133083.14806818689</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>21487659.660317458</v>
+      </c>
+      <c r="B16">
+        <v>133388.39694678699</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>20018271.230952382</v>
+      </c>
+      <c r="B17">
+        <v>130136.37679148019</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>20952326.917724866</v>
+      </c>
+      <c r="B18">
+        <v>131158.02889891359</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>20261882.230952382</v>
+      </c>
+      <c r="B19">
+        <v>130469.16220540875</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>21033542.739947088</v>
+      </c>
+      <c r="B20">
+        <v>131384.35274001939</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>21199207.739947088</v>
+      </c>
+      <c r="B21">
+        <v>132243.32375478177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21271170.489947088</v>
+      </c>
+      <c r="B22">
+        <v>132565.42990065902</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>20699709.917724866</v>
+      </c>
+      <c r="B23">
+        <v>130687.07373214258</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>19825738.393915344</v>
+      </c>
+      <c r="B24">
+        <v>129618.65862395232</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>20009265.230952382</v>
+      </c>
+      <c r="B25">
+        <v>129998.20703863775</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>20780925.739947088</v>
+      </c>
+      <c r="B26">
+        <v>130913.39757324838</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>19906954.216137566</v>
+      </c>
+      <c r="B27">
+        <v>129844.98246505811</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>20090481.053174604</v>
+      </c>
+      <c r="B28">
+        <v>130224.53087974354</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>20955503.584391534</v>
+      </c>
+      <c r="B29">
+        <v>131295.60248056555</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>21036719.406613752</v>
+      </c>
+      <c r="B30">
+        <v>131521.92632167134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>21108682.156613752</v>
+      </c>
+      <c r="B31">
+        <v>131844.03246754862</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>21202384.406613752</v>
+      </c>
+      <c r="B32">
+        <v>132380.89733643373</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>21274347.156613752</v>
+      </c>
+      <c r="B33">
+        <v>132703.003482311</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E0093D3-E6B4-4C1E-B9F6-919A18DE8CE5}">
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>19296544.893386241</v>
+      </c>
+      <c r="B1">
+        <v>129724.71539892278</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>21002441.524867725</v>
+      </c>
+      <c r="B2">
+        <v>131618.30479763329</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>20749824.524867725</v>
+      </c>
+      <c r="B3">
+        <v>131147.34963086227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>20993435.524867725</v>
+      </c>
+      <c r="B4">
+        <v>131480.13504479083</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>21074651.347089946</v>
+      </c>
+      <c r="B5">
+        <v>131706.45888589663</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>20200679.823280424</v>
+      </c>
+      <c r="B6">
+        <v>130638.04377770638</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>20224636.156613756</v>
+      </c>
+      <c r="B7">
+        <v>130943.29265630648</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>20865282.711375665</v>
+      </c>
+      <c r="B8">
+        <v>131264.08567388405</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>19991311.187566139</v>
+      </c>
+      <c r="B9">
+        <v>130195.67056569378</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>21115854.175661378</v>
+      </c>
+      <c r="B10">
+        <v>132457.61763358043</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>20013577.996031746</v>
+      </c>
+      <c r="B11">
+        <v>130551.45426418552</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>19833690.016137566</v>
+      </c>
+      <c r="B12">
+        <v>129844.98246505811</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>21538310.212698415</v>
+      </c>
+      <c r="B13">
+        <v>133696.13706302823</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>21544181.279365078</v>
+      </c>
+      <c r="B14">
+        <v>134418.17229816521</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>21553314.807142857</v>
+      </c>
+      <c r="B15">
+        <v>135005.58985438544</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>21584436.523809522</v>
+      </c>
+      <c r="B16">
+        <v>138694.62282486656</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>20696071.060582012</v>
+      </c>
+      <c r="B17">
+        <v>131013.99711658456</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>20777286.88280423</v>
+      </c>
+      <c r="B18">
+        <v>131240.32095769036</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>21516097.926984128</v>
+      </c>
+      <c r="B19">
+        <v>133615.64321740193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>21470159.660317458</v>
+      </c>
+      <c r="B20">
+        <v>133129.9601278092</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20755074.597089946</v>
+      </c>
+      <c r="B21">
+        <v>131159.82711206406</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>19881103.073280424</v>
+      </c>
+      <c r="B22">
+        <v>130091.4120038738</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>21463703.326984126</v>
+      </c>
+      <c r="B23">
+        <v>133083.14806818689</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>21487659.660317458</v>
+      </c>
+      <c r="B24">
+        <v>133388.39694678699</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>21556897.085714288</v>
+      </c>
+      <c r="B25">
+        <v>136061.84011249198</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>21553965.952380951</v>
+      </c>
+      <c r="B26">
+        <v>135794.43694214959</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>21605005.952380951</v>
+      </c>
+      <c r="B27">
+        <v>139534.28174354811</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>21578026.252380952</v>
+      </c>
+      <c r="B28">
+        <v>136872.60018397728</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>21559837.019047618</v>
+      </c>
+      <c r="B29">
+        <v>136516.47217728657</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>20073123.910317458</v>
+      </c>
+      <c r="B30">
+        <v>130591.22748469457</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>21311998.44365079</v>
+      </c>
+      <c r="B31">
+        <v>132760.44575111917</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>21383961.19365079</v>
+      </c>
+      <c r="B32">
+        <v>133082.55189699642</v>
       </c>
     </row>
   </sheetData>
